--- a/tables/time/Regarding the parks or squares that you have visited in 2019, did you visit parks or squares more frequently during the day before the corona virus outbreak?.xlsx
+++ b/tables/time/Regarding the parks or squares that you have visited in 2019, did you visit parks or squares more frequently during the day before the corona virus outbreak?.xlsx
@@ -408,10 +408,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2">
-        <v>40.8</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +422,7 @@
         <v>114</v>
       </c>
       <c r="C3">
-        <v>27.9</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,10 +430,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -441,10 +441,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>
